--- a/DijagramSlucajevaUpotrebe/Scenariji/SC - Unos.xlsx
+++ b/DijagramSlucajevaUpotrebe/Scenariji/SC - Unos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87CDA9C2-E2D9-445B-ADFB-0DF97D4A0B8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8CF907A-4087-49B4-B952-45CD22AA7426}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -810,6 +810,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -1091,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,277 +1214,322 @@
       </c>
       <c r="C11" s="35"/>
     </row>
-    <row r="12" spans="1:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+    </row>
+    <row r="18" spans="1:3" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B19" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C19" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="20" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="21" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="22" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="9" t="s">
+    <row r="23" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46" t="s">
+    <row r="24" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+    <row r="25" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="44" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+    <row r="26" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="44"/>
-    </row>
-    <row r="21" spans="1:3" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="44"/>
+    </row>
+    <row r="27" spans="1:3" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-    </row>
-    <row r="23" spans="1:3" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="36"/>
-    </row>
-    <row r="25" spans="1:3" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:3" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+    </row>
+    <row r="29" spans="1:3" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-    </row>
-    <row r="33" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="32" spans="1:3" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="36"/>
+    </row>
+    <row r="34" spans="1:3" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="34"/>
-    </row>
-    <row r="34" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="B34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="31"/>
+    </row>
+    <row r="35" spans="1:3" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B35" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C35" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
     </row>
-    <row r="42" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-    </row>
-    <row r="43" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-    </row>
-    <row r="44" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
+    <row r="42" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="34"/>
+    </row>
+    <row r="43" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-    </row>
-    <row r="47" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-    </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-    </row>
-    <row r="50" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+    </row>
+    <row r="51" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+    </row>
+    <row r="52" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+    </row>
+    <row r="53" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+    </row>
+    <row r="54" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+    </row>
+    <row r="56" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+    </row>
+    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="42"/>
+    </row>
+    <row r="59" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
@@ -1486,7 +1537,7 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
